--- a/TestData/Data.xlsx
+++ b/TestData/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ListManager_CreateList" sheetId="1" r:id="rId1"/>
@@ -146,9 +146,6 @@
     <t>BlackList_Email</t>
   </si>
   <si>
-    <t>swati@gmail.com</t>
-  </si>
-  <si>
     <t>BlackList_View_Email</t>
   </si>
   <si>
@@ -186,6 +183,9 @@
   </si>
   <si>
     <t>294</t>
+  </si>
+  <si>
+    <t>swati45@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -512,7 +512,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -552,7 +552,7 @@
         <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E1" t="s">
         <v>21</v>
@@ -573,12 +573,12 @@
         <v>26</v>
       </c>
       <c r="K1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -587,10 +587,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
         <v>3</v>
@@ -620,7 +620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
@@ -644,7 +644,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
         <v>27</v>
@@ -694,7 +694,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -706,7 +706,7 @@
         <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
@@ -715,7 +715,7 @@
         <v>9</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K2" t="s">
         <v>10</v>
@@ -740,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,7 +756,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
         <v>39</v>
@@ -765,13 +765,13 @@
         <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" t="s">
         <v>42</v>
-      </c>
-      <c r="F1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -782,7 +782,7 @@
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -796,7 +796,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId1" display="swati@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestData/Data.xlsx
+++ b/TestData/Data.xlsx
@@ -4,12 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ListManager_CreateList" sheetId="1" r:id="rId1"/>
     <sheet name="ListManger_ListLibrary" sheetId="2" r:id="rId2"/>
     <sheet name="ListManager_BlackList" sheetId="5" r:id="rId3"/>
+    <sheet name="EmailSender" sheetId="6" r:id="rId4"/>
+    <sheet name="SMSSender" sheetId="7" r:id="rId5"/>
+    <sheet name="SMSTemplate" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -21,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="75">
   <si>
     <t>SMS</t>
   </si>
@@ -186,6 +189,66 @@
   </si>
   <si>
     <t>294</t>
+  </si>
+  <si>
+    <t>SenderName</t>
+  </si>
+  <si>
+    <t>SenderEmail</t>
+  </si>
+  <si>
+    <t>Billing Email</t>
+  </si>
+  <si>
+    <t>vikram.billing@qa.qa</t>
+  </si>
+  <si>
+    <t>UseCase</t>
+  </si>
+  <si>
+    <t>SampleSMSText</t>
+  </si>
+  <si>
+    <t>VK-VIKRAM</t>
+  </si>
+  <si>
+    <t>This is for OTP sending</t>
+  </si>
+  <si>
+    <t>The OTP for you Facbook Account Login is 1100</t>
+  </si>
+  <si>
+    <t>TemplateName</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>MessageType</t>
+  </si>
+  <si>
+    <t>MessageText</t>
+  </si>
+  <si>
+    <t>Billing Template</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Promotional</t>
+  </si>
+  <si>
+    <t>The is  OTP template.</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Transactional</t>
+  </si>
+  <si>
+    <t>Unicode</t>
   </si>
 </sst>
 </file>
@@ -512,7 +575,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -620,7 +683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
@@ -800,4 +863,146 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TestData/Data.xlsx
+++ b/TestData/Data.xlsx
@@ -4,12 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ListManager_CreateList" sheetId="1" r:id="rId1"/>
     <sheet name="ListManger_ListLibrary" sheetId="2" r:id="rId2"/>
     <sheet name="ListManager_BlackList" sheetId="5" r:id="rId3"/>
+    <sheet name="ContentRepository_EmailTemplate" sheetId="6" r:id="rId4"/>
+    <sheet name="ContentRepository_EmailSender" sheetId="7" r:id="rId5"/>
+    <sheet name="ContentRepository_SmsTemplate" sheetId="9" r:id="rId6"/>
+    <sheet name="ContentRepository_SmsSender" sheetId="11" r:id="rId7"/>
+    <sheet name="ContentRepository_Voice" sheetId="12" r:id="rId8"/>
+    <sheet name="ContentRepository_Push" sheetId="14" r:id="rId9"/>
+    <sheet name="ContentRepository_WebPush" sheetId="15" r:id="rId10"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -21,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="136">
   <si>
     <t>SMS</t>
   </si>
@@ -62,15 +69,9 @@
     <t>gmail.com</t>
   </si>
   <si>
-    <t>ListSeg1</t>
-  </si>
-  <si>
     <t>Phn</t>
   </si>
   <si>
-    <t>286</t>
-  </si>
-  <si>
     <t>Segment</t>
   </si>
   <si>
@@ -167,32 +168,281 @@
     <t>List_TypeOfFile(Import/Json)</t>
   </si>
   <si>
-    <t>289</t>
-  </si>
-  <si>
-    <t>NewList678</t>
-  </si>
-  <si>
     <t>C:\Users\swati.ahuja\Desktop\Hello.xlsx</t>
   </si>
   <si>
     <t>json</t>
   </si>
   <si>
-    <t>List1456</t>
-  </si>
-  <si>
-    <t>294</t>
-  </si>
-  <si>
     <t>swati45@gmail.com</t>
+  </si>
+  <si>
+    <t>Email_TemplateName</t>
+  </si>
+  <si>
+    <t>Email_Description</t>
+  </si>
+  <si>
+    <t>Email_ContentType</t>
+  </si>
+  <si>
+    <t>Email_Text</t>
+  </si>
+  <si>
+    <t>Email_html</t>
+  </si>
+  <si>
+    <t>Email_Weburl</t>
+  </si>
+  <si>
+    <t>EmailTemplate1</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Hello Friends</t>
+  </si>
+  <si>
+    <t>www.html</t>
+  </si>
+  <si>
+    <t>www.google.com</t>
+  </si>
+  <si>
+    <t>EmailSender_SenderName</t>
+  </si>
+  <si>
+    <t>EmailSender_SenderEmail</t>
+  </si>
+  <si>
+    <t>SMS_TemplateName</t>
+  </si>
+  <si>
+    <t>SMS_Description</t>
+  </si>
+  <si>
+    <t>SMS_Type</t>
+  </si>
+  <si>
+    <t>SMS_MessageType</t>
+  </si>
+  <si>
+    <t>SMS_Text</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>Transactional</t>
+  </si>
+  <si>
+    <t>Sender_Sender_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sender_UseCase </t>
+  </si>
+  <si>
+    <t>Sender_SampleSMS</t>
+  </si>
+  <si>
+    <t>SWATI123</t>
+  </si>
+  <si>
+    <t>TestMessage</t>
+  </si>
+  <si>
+    <t>Hello friends</t>
+  </si>
+  <si>
+    <t>Voice_clipName</t>
+  </si>
+  <si>
+    <t>Voice_Description</t>
+  </si>
+  <si>
+    <t>Voice_Type</t>
+  </si>
+  <si>
+    <t>Voice_SoundClipPath</t>
+  </si>
+  <si>
+    <t>Hello</t>
+  </si>
+  <si>
+    <t>C:\Users\swati.ahuja\Downloads\5ce6e195-8c04-4d4f-9fbc-3f42c0a801cd.wav</t>
+  </si>
+  <si>
+    <t>Push_Name</t>
+  </si>
+  <si>
+    <t>Push_Platform</t>
+  </si>
+  <si>
+    <t>Push_PushNotification</t>
+  </si>
+  <si>
+    <t>Push_Title</t>
+  </si>
+  <si>
+    <t>Push_Message</t>
+  </si>
+  <si>
+    <t>Push_PrimaryCTA</t>
+  </si>
+  <si>
+    <t>Push_CTALink</t>
+  </si>
+  <si>
+    <t>Push_BrowseUpdate</t>
+  </si>
+  <si>
+    <t>IOS</t>
+  </si>
+  <si>
+    <t>Banner</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>C:\Users\swati.ahuja\Desktop\network.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> External Url </t>
+  </si>
+  <si>
+    <t>WebPush_Name</t>
+  </si>
+  <si>
+    <t>WebPush_Title</t>
+  </si>
+  <si>
+    <t>WebPush_Description</t>
+  </si>
+  <si>
+    <t>WebPush_CTA</t>
+  </si>
+  <si>
+    <t>WebPushPath</t>
+  </si>
+  <si>
+    <t>webpush</t>
+  </si>
+  <si>
+    <t>web123</t>
+  </si>
+  <si>
+    <t>heloo</t>
+  </si>
+  <si>
+    <t>3456789</t>
+  </si>
+  <si>
+    <t>C:\Users\swati.ahuja\Desktop\push.jfif</t>
+  </si>
+  <si>
+    <t>ApproveType</t>
+  </si>
+  <si>
+    <t>AproveContent</t>
+  </si>
+  <si>
+    <t>ActionDescription</t>
+  </si>
+  <si>
+    <t>Action(Approve/Disapprove)</t>
+  </si>
+  <si>
+    <t>SmsTemplate</t>
+  </si>
+  <si>
+    <t>Please Approve</t>
+  </si>
+  <si>
+    <t>Approve</t>
+  </si>
+  <si>
+    <t>EmailSender</t>
+  </si>
+  <si>
+    <t>swati.ahuja12@vrt.com</t>
+  </si>
+  <si>
+    <t>swatiahujaaSS</t>
+  </si>
+  <si>
+    <t>SMS_TemplateNameaaa</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>voiceClipaa</t>
+  </si>
+  <si>
+    <t>bb</t>
+  </si>
+  <si>
+    <t>bbbb</t>
+  </si>
+  <si>
+    <t>bbb</t>
+  </si>
+  <si>
+    <t>Import</t>
+  </si>
+  <si>
+    <t>Listimport001</t>
+  </si>
+  <si>
+    <t>Listjson001</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>Export</t>
+  </si>
+  <si>
+    <t>Listjson110,Listimport110</t>
+  </si>
+  <si>
+    <t>Listimport110-Email</t>
+  </si>
+  <si>
+    <t>ListSegments1</t>
+  </si>
+  <si>
+    <t>NewListemail</t>
+  </si>
+  <si>
+    <t>ListSegments,Listjson110</t>
+  </si>
+  <si>
+    <t>Listimport110,Listjson11</t>
+  </si>
+  <si>
+    <t>Listjson1,Listimport1</t>
+  </si>
+  <si>
+    <t>CategoryList</t>
+  </si>
+  <si>
+    <t>SegLists</t>
+  </si>
+  <si>
+    <t>Listi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,6 +457,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -230,7 +486,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -239,6 +495,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -520,10 +777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,42 +800,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" t="s">
-        <v>26</v>
-      </c>
       <c r="K1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>122</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -587,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F2" t="s">
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
         <v>3</v>
@@ -609,6 +866,123 @@
       </c>
       <c r="K2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I2" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -618,17 +992,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.28515625" bestFit="1" customWidth="1"/>
@@ -639,62 +1013,62 @@
     <col min="11" max="11" width="30" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>31</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>32</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>33</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>34</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" t="s">
         <v>35</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>36</v>
-      </c>
-      <c r="L1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -703,30 +1077,162 @@
         <v>5</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>15</v>
+        <v>131</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>129</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>128</v>
       </c>
       <c r="I2" t="s">
         <v>9</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>53</v>
+        <v>126</v>
       </c>
       <c r="K2" t="s">
         <v>10</v>
       </c>
       <c r="L2" t="s">
-        <v>3</v>
+        <v>127</v>
       </c>
       <c r="M2" t="s">
         <v>11</v>
       </c>
       <c r="N2" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="K3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" t="s">
+        <v>127</v>
+      </c>
+      <c r="M3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G4" t="s">
+        <v>133</v>
+      </c>
+      <c r="H4" t="s">
+        <v>134</v>
+      </c>
+      <c r="I4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="K4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" t="s">
+        <v>127</v>
+      </c>
+      <c r="M4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H5" t="s">
+        <v>128</v>
+      </c>
+      <c r="I5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="K5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" t="s">
+        <v>127</v>
+      </c>
+      <c r="M5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -740,8 +1246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,22 +1262,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
         <v>39</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>40</v>
-      </c>
-      <c r="D1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -779,10 +1285,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -791,7 +1297,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -800,4 +1306,453 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="71.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J2" t="s">
+        <v>119</v>
+      </c>
+      <c r="K2" t="s">
+        <v>120</v>
+      </c>
+      <c r="L2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>